--- a/static/docs/WMA2019_assignments.xlsx
+++ b/static/docs/WMA2019_assignments.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melzieb/Dropbox/WMA 2019 Proposals/Round 1 Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F247F0-D5AF-2643-81D2-414AF5C5E613}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAD17C5-F212-2641-9E47-D2538786B283}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1320" windowWidth="26780" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="3520" windowWidth="26780" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="1" r:id="rId1"/>
     <sheet name="Workshops" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="307">
   <si>
     <t>Session #</t>
   </si>
@@ -944,6 +944,9 @@
   </si>
   <si>
     <t>Laura Fry, Karen McWhorter</t>
+  </si>
+  <si>
+    <t>Cecilia Clark</t>
   </si>
 </sst>
 </file>
@@ -2541,7 +2544,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2841,7 +2844,7 @@
         <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>306</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
@@ -3363,7 +3366,7 @@
         <v>145</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>8</v>
@@ -3423,7 +3426,7 @@
         <v>167</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>9</v>
@@ -4143,7 +4146,7 @@
         <v>33</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>8</v>
@@ -4297,8 +4300,8 @@
       <c r="F96" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H79">
-    <sortCondition ref="A2:A79"/>
+  <sortState ref="A2:H98">
+    <sortCondition ref="A2:A98"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
